--- a/02Controlled library（受控库）/03Support（支持类）/01CM（配置管理）/BestMooc_基线状态报告.xlsx
+++ b/02Controlled library（受控库）/03Support（支持类）/01CM（配置管理）/BestMooc_基线状态报告.xlsx
@@ -22,7 +22,7 @@
     <t>项目代号</t>
   </si>
   <si>
-    <t>HD20180701JY004</t>
+    <t>HD20180705R203</t>
   </si>
   <si>
     <t>项目名称</t>
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -245,6 +245,97 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -253,46 +344,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -308,64 +359,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -375,7 +368,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,13 +410,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,169 +512,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,6 +1041,78 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1060,78 +1132,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1150,10 +1150,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1162,137 +1162,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1546,7 +1546,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1928,7 +1927,7 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
@@ -1973,7 +1972,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="88"/>
+      <c r="J2" s="87"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A3" s="7" t="s">
@@ -1999,7 +1998,7 @@
       <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="89">
+      <c r="J3" s="88">
         <v>43287</v>
       </c>
     </row>
@@ -2025,7 +2024,7 @@
       <c r="I4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="90"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A5" s="14" t="s">
@@ -2047,7 +2046,7 @@
         <v>43285</v>
       </c>
       <c r="I5" s="17"/>
-      <c r="J5" s="91"/>
+      <c r="J5" s="90"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="44.25" customHeight="1" spans="1:10">
       <c r="A6" s="16"/>
@@ -2064,10 +2063,10 @@
       <c r="H6" s="26">
         <v>43288</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="93"/>
+      <c r="J6" s="92"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A7" s="27" t="s">
@@ -2088,10 +2087,10 @@
       <c r="H7" s="26">
         <v>43294</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="94"/>
+      <c r="J7" s="93"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="24.75" customHeight="1" spans="1:10">
       <c r="A8" s="33"/>
@@ -2108,10 +2107,10 @@
       <c r="H8" s="26">
         <v>43294</v>
       </c>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="94"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="24.75" customHeight="1" spans="1:10">
       <c r="A9" s="33"/>
@@ -2128,10 +2127,10 @@
       <c r="H9" s="26">
         <v>43294</v>
       </c>
-      <c r="I9" s="92" t="s">
+      <c r="I9" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="94"/>
+      <c r="J9" s="93"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A10" s="33"/>
@@ -2148,8 +2147,8 @@
       <c r="H10" s="26">
         <v>43294</v>
       </c>
-      <c r="I10" s="92"/>
-      <c r="J10" s="94"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="93"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A11" s="33"/>
@@ -2166,8 +2165,8 @@
       <c r="H11" s="26">
         <v>43294</v>
       </c>
-      <c r="I11" s="92"/>
-      <c r="J11" s="94"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A12" s="33"/>
@@ -2184,8 +2183,8 @@
       <c r="H12" s="26">
         <v>43294</v>
       </c>
-      <c r="I12" s="92"/>
-      <c r="J12" s="94"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="93"/>
     </row>
     <row r="13" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A13" s="39"/>
@@ -2202,8 +2201,8 @@
       <c r="H13" s="26">
         <v>43294</v>
       </c>
-      <c r="I13" s="92"/>
-      <c r="J13" s="94"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="93"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A14" s="39"/>
@@ -2220,8 +2219,8 @@
       <c r="H14" s="26">
         <v>43294</v>
       </c>
-      <c r="I14" s="92"/>
-      <c r="J14" s="94"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="93"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A15" s="39"/>
@@ -2238,8 +2237,8 @@
       <c r="H15" s="26">
         <v>43294</v>
       </c>
-      <c r="I15" s="92"/>
-      <c r="J15" s="94"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="93"/>
     </row>
     <row r="16" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A16" s="27" t="s">
@@ -2260,10 +2259,10 @@
       <c r="H16" s="26">
         <v>43329</v>
       </c>
-      <c r="I16" s="95" t="s">
+      <c r="I16" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="96"/>
+      <c r="J16" s="95"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A17" s="33"/>
@@ -2280,10 +2279,10 @@
       <c r="H17" s="26">
         <v>43329</v>
       </c>
-      <c r="I17" s="95" t="s">
+      <c r="I17" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="96"/>
+      <c r="J17" s="95"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A18" s="33"/>
@@ -2300,10 +2299,10 @@
       <c r="H18" s="26">
         <v>43329</v>
       </c>
-      <c r="I18" s="95" t="s">
+      <c r="I18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="96"/>
+      <c r="J18" s="95"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A19" s="33"/>
@@ -2320,8 +2319,8 @@
       <c r="H19" s="26">
         <v>43329</v>
       </c>
-      <c r="I19" s="95"/>
-      <c r="J19" s="96"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="95"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A20" s="33"/>
@@ -2338,8 +2337,8 @@
       <c r="H20" s="26">
         <v>43329</v>
       </c>
-      <c r="I20" s="95"/>
-      <c r="J20" s="96"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="95"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A21" s="33"/>
@@ -2356,8 +2355,8 @@
       <c r="H21" s="26">
         <v>43329</v>
       </c>
-      <c r="I21" s="95"/>
-      <c r="J21" s="96"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="95"/>
     </row>
     <row r="22" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A22" s="33"/>
@@ -2374,8 +2373,8 @@
       <c r="H22" s="26">
         <v>43329</v>
       </c>
-      <c r="I22" s="95"/>
-      <c r="J22" s="96"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="95"/>
     </row>
     <row r="23" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
       <c r="A23" s="50"/>
@@ -2392,10 +2391,10 @@
       <c r="H23" s="57">
         <v>43329</v>
       </c>
-      <c r="I23" s="97"/>
-      <c r="J23" s="98"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="I23" s="96"/>
+      <c r="J23" s="97"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A24" s="58"/>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
@@ -2404,8 +2403,6 @@
       <c r="F24" s="58"/>
       <c r="G24" s="58"/>
       <c r="H24" s="58"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A25" s="59" t="s">
@@ -2419,7 +2416,7 @@
       <c r="G25" s="60"/>
       <c r="H25" s="60"/>
       <c r="I25" s="60"/>
-      <c r="J25" s="99"/>
+      <c r="J25" s="98"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A26" s="61" t="s">
@@ -2439,7 +2436,7 @@
       <c r="I26" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="100"/>
+      <c r="J26" s="99"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A27" s="61"/>
@@ -2461,7 +2458,7 @@
       <c r="I27" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="101" t="s">
+      <c r="J27" s="100" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2480,8 +2477,8 @@
       <c r="F28" s="71"/>
       <c r="G28" s="72"/>
       <c r="H28" s="73"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="103"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="102"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A29" s="68">
@@ -2498,8 +2495,8 @@
         <v>21</v>
       </c>
       <c r="H29" s="74"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="103"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="102"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:10">
       <c r="A30" s="75">
@@ -2512,14 +2509,14 @@
       <c r="F30" s="79"/>
       <c r="G30" s="76"/>
       <c r="H30" s="80"/>
-      <c r="I30" s="104" t="s">
+      <c r="I30" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="105" t="s">
+      <c r="J30" s="104" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="15" spans="1:10">
+    <row r="31" s="1" customFormat="1" ht="15" spans="1:8">
       <c r="A31" s="58"/>
       <c r="B31" s="58"/>
       <c r="C31" s="58"/>
@@ -2528,8 +2525,6 @@
       <c r="F31" s="58"/>
       <c r="G31" s="58"/>
       <c r="H31" s="58"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A32" s="81" t="s">
@@ -2544,26 +2539,24 @@
       <c r="F32" s="83"/>
       <c r="G32" s="83"/>
       <c r="H32" s="83"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="107"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="106"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:10">
       <c r="A33" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="85"/>
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
       <c r="G33" s="58"/>
       <c r="H33" s="58"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="108"/>
+      <c r="J33" s="107"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:10">
       <c r="A34" s="84"/>
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="58"/>
@@ -2572,22 +2565,21 @@
       <c r="F34" s="58"/>
       <c r="G34" s="58"/>
       <c r="H34" s="58"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="108"/>
+      <c r="J34" s="107"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="109"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="59">
